--- a/biology/Botanique/Hymenophyllum/Hymenophyllum.xlsx
+++ b/biology/Botanique/Hymenophyllum/Hymenophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hyménophylles ou Hymenophyllum sont un genre de fougères de la famille des Hyménophyllacées. Il s'agit de plantes de petite à très petite taille (quelques centimètres) localisées dans des endroits très humides, parfois épiphytes.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fougères ont des feuilles petites, lisses et très fines : cette finesse des tissus de la feuille, la rendant presque transparente, ont donné le nom au genre (la famille entière a cette caractéristique d'une couche unique de cellules des feuilles). Les stomates sont absents (c'est aussi une des caractéristiques de la famille).
 Les frondes sont composées, à divisions nombreuses et à bords dentés.
 L'indusie a généralement deux lèvres.
-Ce genre a par ailleurs une très grande disparité - quasi unique chez les fougères - du nombre de ses chromosomes, n variant de 11 à 36[1].
+Ce genre a par ailleurs une très grande disparité - quasi unique chez les fougères - du nombre de ses chromosomes, n variant de 11 à 36.
 			Hymenophyllum dentatum
 			Hymenophyllum wilsonii
 			Hymenonphyllum spp (planche extraite de Moore)
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fougères se développent préférentiellement sur le sol et sont parfois épiphytes.
 Ce genre est réparti sur tous les continents des régions arctiques aux zones équatoriales, des deux hémisphères, dans des milieux préférentiellement très humides.
@@ -580,7 +596,9 @@
           <t>Présence en France et Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes peuvent se rencontrer en France métropolitaine : 
 Hymenophyllum tunbrigense
@@ -614,7 +632,9 @@
           <t>Historique du genre et de ses subdivisions taxonomiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été créé par James Edward Smith en 1793, par reclassement de quelques espèces du genre Trichomanes.
 À part Karel Bořivoj Presl, qui a scindé le genre en d'autres genres - Mecodium ou Myrmecostylum par exemple -, mais aussi Bosch, les principaux remaniements ont concerné surtout les sous-genres ou sections.
@@ -647,13 +667,50 @@
           <t>Liste des espèces par sous-genre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Au sein de cette famille, la classification a hérité d'une probable trop grande segmentation en genres à l'origine (cf. remarques de William Jackson Hooker sur la description de la famille réalisée par Presl) conduisant à des réorganisations importantes et fréquentes. Ce genre, décrit dès la fin du XVIIIe siècle, s'est vu ainsi affecté récemment par les remaniements de Copeland (années 1937 - 40) et des avancées des travaux phylogénétiques récents (Dubuisson, Pyer et al.). S'agissant aussi de petites plantes, la moindre différence peut être tout aussi légitimement interprétée comme élément de spéciation, comme différence variétale, voire comme simple variation intra-spécifique. Il en résulte une situation complexe, qui sera susceptible d'évoluer au fur et à mesure des progressions des connaissances.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de cette famille, la classification a hérité d'une probable trop grande segmentation en genres à l'origine (cf. remarques de William Jackson Hooker sur la description de la famille réalisée par Presl) conduisant à des réorganisations importantes et fréquentes. Ce genre, décrit dès la fin du XVIIIe siècle, s'est vu ainsi affecté récemment par les remaniements de Copeland (années 1937 - 40) et des avancées des travaux phylogénétiques récents (Dubuisson, Pyer et al.). S'agissant aussi de petites plantes, la moindre différence peut être tout aussi légitimement interprétée comme élément de spéciation, comme différence variétale, voire comme simple variation intra-spécifique. Il en résulte une situation complexe, qui sera susceptible d'évoluer au fur et à mesure des progressions des connaissances.
 La liste qui suit est issue des index IPNI (The International Plant Names Index) et Tropicos (index du Jardin Botanique du Missouri) à la date de septembre 2010.
-La question des synonymies - particulièrement importante pour ce genre - a été prudemment traitée : les travaux de Atsushi Ebihara et al. n'y font pas allusion, mais des indications du remarquable Index filicum de Carl Frederik Albert Christensen (pages 356 à 370) ainsi que celles de Sinopsis filicum de William Jackson Hooker et John Gilbert Baker, quoique assez anciennes, ont été utilisées[2].
-Sous-genre Hymenophyllum
-Les plantes de ce sous-genre, quoique de morphologie très variée, présentent les caractéristiques suivantes :
+La question des synonymies - particulièrement importante pour ce genre - a été prudemment traitée : les travaux de Atsushi Ebihara et al. n'y font pas allusion, mais des indications du remarquable Index filicum de Carl Frederik Albert Christensen (pages 356 à 370) ainsi que celles de Sinopsis filicum de William Jackson Hooker et John Gilbert Baker, quoique assez anciennes, ont été utilisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes de ce sous-genre, quoique de morphologie très variée, présentent les caractéristiques suivantes :
 un long rhizome rampant, filiforme, sans poils ou très légèrement couvert de poils
 le limbe des frondes est simple à diviser quatre fois, approximativement elliptique, d'environ 30 cm de long sur 15 de large
 les sores sont généralement situés au sommet des derniers segments
@@ -837,7 +894,7 @@
 Hymenophyllum pumilio Rosenst. (1910) - Nouvelle Calédonie
 Hymenophyllum pumilum C.Moore (1874) - Nouvelle Galles du Sud (Australie)
 Hymenophyllum pygmaeum Colenso (1881)
-Hymenophyllum pyriforme Bosch (1863) - Nouvelle-Zélande - [3]
+Hymenophyllum pyriforme Bosch (1863) - Nouvelle-Zélande - 
 Hymenophyllum quetrihuense Diem &amp; J.S.Licht. (1959) - Argentine
 Hymenophyllum quetrihuense f. nanum Diem &amp; J.S.Licht. (1959) - Argentine
 Hymenophyllum ramosii Copel. (1937) - Philippines - Synonyme : Meringium ramosii (Copel.) Copel.
@@ -882,7 +939,7 @@
 Hymenophyllum trichocaulon Phil. (1896) - Chili
 Hymenophyllum trichophorum (Alderw.) Ebihara &amp; K.Iwats. (2006) - Synonyme : Trichomanes trichophorum Alderw.
 Hymenophyllum truncatum Colenso (1891) - Nouvelle-Zélande
-Hymenophyllum tunbrigense (L.) Sm. (1808) - Cosmopolite - Synonymes : Trichomanes tunbrigense L. (basionym), Trichomanes pulchellum Salisb[4].
+Hymenophyllum tunbrigense (L.) Sm. (1808) - Cosmopolite - Synonymes : Trichomanes tunbrigense L. (basionym), Trichomanes pulchellum Salisb.
 Hymenophyllum tunbrigense var. asperulum (Kunze) Diem &amp; J.S.Licht. (1959) - Chili - Synonyme : Hymenophyllum asperulum Kunze
 Hymenophyllum tunbrigense var. cordobensis Hieron. (1896) - Argentine
 Hymenophyllum umbratile Diem &amp; J.S.Licht. (1959) - Argentine
@@ -898,8 +955,43 @@
 Hymenophyllum wilsonii Hook. (1830)
 Hymenophyllum zeelandicum Bosch (1863) - Nouvelle-Zélande
 Hymenophyllum zollingerianum Kunze (1848) - Java - Synonyme : Didymoglossum zollingeri (Kunze) Hassk.
-Sous-genre Sphaerocionium (C.Presl) C.Chr.
-Le limbe des espèces de ce sous-genre est couvert de poils en étoiles ou ses divisions sont dichotomes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Sphaerocionium (C.Presl) C.Chr.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le limbe des espèces de ce sous-genre est couvert de poils en étoiles ou ses divisions sont dichotomes.
 Le nombre de base de chromosomes des espèces de ce sous-genre est de 36.
 Le sous-genre Sphaerocionium compte environ 70 espèces dont l'aire de répartition concerne l'ensemble des régions tropicales, en particulier celles du nouveau monde.
 			Hymenophyllum aeruginosum (Poir.) Carmich.
@@ -969,7 +1061,7 @@
 Hymenophyllum crispatulum Bosch (1859) - Pérou
 Hymenophyllum crispum Kunth (1815) - Amérique tropicale
 Hymenophyllum crispum var. bipinnatisectum C.V.Morton (1947) - Pérou
-Hymenophyllum cruegeri Müll.Berol. (1854) -  Synonyme : Sphaerocionium cruegeri (Müll.Berol.) Copel.[5].
+Hymenophyllum cruegeri Müll.Berol. (1854) -  Synonyme : Sphaerocionium cruegeri (Müll.Berol.) Copel..
 Hymenophyllum cubense Sturm (1859) - Cuba
 Hymenophyllum delicatissimum Fée (1872)
 Hymenophyllum delicatulum Sehnem (1956) - Brésil, Uruguay
@@ -999,7 +1091,7 @@
 Hymenophyllum fuertesii Brause (1913) - Dominique, Saint Domingue
 Hymenophyllum fulvum Bosch (1863) - Madagascar
 Hymenophyllum fusugasugense H.Karst. ex J.W.Sturm (1859) - Colombie - Synonyme : Hymenophyllum tomentosum var fusugasugense (H.Karst. ex J.W.Sturm) C.V.Morton
-Hymenophyllum gardnerianum J.W.Sturm (1859) - Brésil[6]
+Hymenophyllum gardnerianum J.W.Sturm (1859) - Brésil
 Hymenophyllum glaziovii Baker (1886) - Brésil
 Hymenophyllum hemidimorphum R.C.Moran &amp; B.Øllg. (1995) - Équateur
 Hymenophyllum hemipteron Rosenst. (1925) - Costa Rica
@@ -1016,10 +1108,10 @@
 Hymenophyllum interruptum Kunze (1834) - Amérique tropicale - Synonyme : Sphaerocionium interrumtum (Kunze) C.Presl
 Hymenophyllum ivohibense Tardieu (1941) - Madagascar
 Hymenophyllum kaieteurum Jenman (1898) - Guyane
-Hymenophyllum karstenianum J.W.Sturm[7] (1859) - Venezuela
+Hymenophyllum karstenianum J.W.Sturm (1859) - Venezuela
 Hymenophyllum lanatum Fée (1866) - Guadeloupe, Jamaïque - Synonymes : Hymenophyllum hirsutum var. lanatum (Fée) Duss, Sphaerocionium lanatum (Fée) Copel.
 Hymenophyllum lanceolatum Hook. &amp; Arn. (1832) - Archipel des îles Hawaï - Synonyme : Sphaerocionium lanceolatum (Hook. &amp; Arn.) Copel.
-Hymenophyllum lindenii Hook. (1846) - Équateur, Venezuela - Synonymes : Hymenophyllum spectabile Moritz[8], Sphaerocionium lindenii (Hook.) Vareschi
+Hymenophyllum lindenii Hook. (1846) - Équateur, Venezuela - Synonymes : Hymenophyllum spectabile Moritz, Sphaerocionium lindenii (Hook.) Vareschi
 Hymenophyllum lindigii Mett. (1864) - Colombie
 Hymenophyllum lineare (Sw.) Sw. (1800) - Amérique tropicale, Caraïbe - Synonymes : Trichomanes lineare Sw., Didymoglossum lineare (Sw.) Desv., Sphaerocionium lineare (Sw.) C.Presl
 Hymenophyllum lineare f. tuberosa Rosenst. (1906) - Brésil
@@ -1039,35 +1131,711 @@
 Hymenophyllum moritzianum J.W.Sturm (1859) - Brésil
 Hymenophyllum mortonianum Lellinger (1985) - Colombie
 Hymenophyllum multialatum C.V.Morton (1947) - Colombie, Équateur, Pérou
-Hymenophyllum nanostellatum Lellinger (</t>
+Hymenophyllum nanostellatum Lellinger (1984) - Venezuela
+Hymenophyllum nitidulum (Bosch) Ebihara &amp; K.Iwats. (2004) - Java, Luzon - Synonymes : Gonocormus nitidulus (Bosch) Prantl, Microtrichomanes nitidulum (Bosch) Copel., Sphaerocionium nitidulum (Bosch) K.Iwats., Trichomanes inerme Bosch ex Goddijn, Trichomanes nitidulum Bosch
+Hymenophyllum notabile Fée (1869) - Brésil
+Hymenophyllum nudum (Poir.) Desv. (1827) - Quadeloupe - Synonyme : Trichomanes nudum Poir.
+Hymenophyllum obtusum Hook. &amp; Arn. (1832) - Îles Hawaï, Nouvelle-Guinée
+Hymenophyllum orbignianum Bosch (1863) - Bolivie
+Hymenophyllum organense Hook. (1844) - Brésil
+Hymenophyllum palmatifidum (Müll.Berol.) Ebihara &amp; K.Iwats. (2004) - Synonyme : Trichomanes palmatifidum Müll.Berol.
+Hymenophyllum palmense Rosenst. (1925) - Costa Rica
+Hymenophyllum pannosum Christ (1905) - Costa Rica
+Hymenophyllum pastoense Hook. (1867) - Équateur, Bolivie
+Hymenophyllum pendulum Bory (1833)
+Hymenophyllum pilosissimum C.Chr. (1934) - Bornéo, Nouvelle-Guinée
+Hymenophyllum platylobum Bosch (1863)
+Hymenophyllum plumieri Hook. &amp; Grev. (1829) - Amérique du Sud - Synonyme : Sphaerocionium plumieri (Hook. &amp; Grev.) C.Presl
+Hymenophyllum plumosum Kaulf. (1824) - Amérique tropicale - Synonymes : Sphaerocionium aureum C.Prel, Sphaerocionium plumosum (Kaulf.) Copel.
+Hymenophyllum pooli Baker (1876) - Madagascar
+Hymenophyllum portoricense Kuhn (1897)
+Hymenophyllum prionema Kunze ex J.W.Sturm (1859) - Brésil
+Hymenophyllum proctoris C.Sánchez (1987) - Cuba
+Hymenophyllum producens Fée (1869)
+Hymenophyllum pteropodum Bosch (1863) - Équateur
+Hymenophyllum pulchellum Schltdl. &amp; Cham. (1830) - Amérique centrale (Costa Rica, Guatemala, Honduras, Mexique, Nicaragua), Brésil - Synonyme : Sphaerocionium pulchellum (Schltdl. &amp; Cham.) C.Presl
+Hymenophyllum pyramidatum Desv. (1827) - Andes - Synonyme : Sphaerocionium pyramidatum (Desv.) Copel.
+Hymenophyllum raddianum Müll.Berol. (1854) -  Synonyme : Sphaerocionium raddianum (Müll.Berol.) Copel.
+Hymenophyllum remotum Bosch (1859) - Synonyme : Sphaerocionium grevilleanum C.Presl
+Hymenophyllum roraimense C.V.Morton (1947) - Guyana
+Hymenophyllum rufum Fée (1869) - Brésil, Costa Rica - Synonyme :Sphaerocionium rufum (Fée) Copel.
+Hymenophyllum rufum f. pseudocarpa Rosenst. (1915) - Brésil
+Hymenophyllum ruizianum (Klotzsch) Kunze (1847) - Pérou, Venezuela - Synonyme : Sphaerocionium ruizianum Klotzsch
+Hymenophyllum saenzianum L.D.Gómez (1972) - Costa Rica
+Hymenophyllum sampaioanum Brade &amp; Rosenst. (1931) - Brésil - Synonyme : Sphaerocionium sampaioanum (Brade &amp; Rosenst.) Copel.
+Hymenophyllum schiedeanum (C.Presl) Müll.Hal. (1854) - Mexique - Synonyme : Sphaerocionium schiedeanum C.Presl
+Hymenophyllum semiglabrum Rosenst. (1910) - Costa Rica - Synonyme : Sphaerocionium semiglabrum (Rosenst.) Copel.
+Hymenophyllum sericeum (Sw.) Sw. (1800) - Amérique tropicale : Équateur, Venezuela, Caraïbe - Synonymes : Hymenophyllum sturmii Mett. (non Bosch), Sphaerocionium sericeum (Sw.) C.Presl, Trichomanes sericeum Sw.
+Hymenophyllum sericeum var. refrondescens (Sodiro) Sodiro (1892) - Équateur - Synonyme : Hymenophyllum refrondescens Sodiro
+Hymenophyllum sieberi C.Presl) Bosch (1859) - Amérique tropicale, Caraïbe (Martinique) - Synonyme : Sphaerocionium sieberi C.Presl
+Hymenophyllum silvaticum C.V.Morton (1947) - Colombie
+Hymenophyllum silveirae Christ (1900) - Brésil - Synonyme : Sphaerocionium silveirae (Christ) Pic.Serm.
+Hymenophyllum simplex C.V.Morton (1947) - Pérou
+Hymenophyllum speciosum Bosch (1859) - Bolivie, Équateur, Pérou
+Hymenophyllum spectabile Mett. ex Kuhn (1868) - Bolivie - Synonyme : Sphaerocionium spectabile (Mett. ex Kuhn) Copel. - Kuhn a rectifié l'épithète spécifique speciosum donné par Mettenius.
+Hymenophyllum splendidum Bosch (1863) - Amérique équatoriale, Afrique équatoriale (île Fernando Poo) - Synonymes : Hymenophyllum ciliatum var. splendidum (Bosch) J.Bommer, Sphaerocionium splendidum (Bosch) Copel.
+Hymenophyllum splendidum var. apodum Sodiro (1892) - Équateur
+Hymenophyllum sprucei Baker (1867) - Pérou
+Hymenophyllum subobtusum Rosenst. (1910) - Nouvelle-Calédonie - Synonyme : Sphaerocionium subobtusum (Rosenst.) Copel.
+Hymenophyllum subrigidum Christ (1905) - Costa Rica - Synonyme : Sphaerocionium subrigidum (Christ) Copel.
+Hymenophyllum subtilissimum Kunze (1837)
+Hymenophyllum superbum C.V.Morton (1947) - Équateur
+Hymenophyllum surinamense Bosch (1859) - Surinam
+Hymenophyllum talamancanum A.Rojas (2004) - Costa Rica.
+Hymenophyllum tarapotense Stolze (1989) - Pérou
+Hymenophyllum tayloriae Farrar &amp; Raine (1991) - États-Unis (Caroline du Sud)
+Hymenophyllum tenerrimum Bosch (1863) - Pérou
+Hymenophyllum terminale Bosch (1863) - Équateur
+Hymenophyllum tomaniiviense (Brownlie) Ebihara &amp; K.Iwats. (2004) - Synonyme : Trichomanes tomaniiviense Brownlie
+Hymenophyllum tomentosum Kunze (1834) - Andes - Synonymes : Dermatophlebium tomentosum (Kunze) C.Presl, Hymenophyllum fusugasugense var aberans C.V.Morton, Sphaerocionium tomentosum (Kunze) C.Presl
+Hymenophyllum trapezoidale Liebm. (1849) - Amérique tropicale (Mexique, Colombie, Équateur...)
+Hymenophyllum trichophyllum Kunth (1815) - Andes - Synonymes : Hymenophyllum procerum Bosch, Sphaerocionium trichophyllum (Kunth) Copel.
+Hymenophyllum trichophyllum var. buesii C.V.Morton (1947) - Pérou
+Hymenophyllum trichophyllum var. contracta Hieron. (1906) - Colombie
+Hymenophyllum trifidum Hook. &amp; Grev. (1830) - Équateur, Pérou
+Hymenophyllum turquinense C.Sánchez (1987) - Cuba
+Hymenophyllum ulei Christ &amp; Giesenh. (1899) - Brésil
+Hymenophyllum urbanii Brause (1913) - Saint Domingue
+Hymenophyllum valvatum Hook. &amp; Grev. (1831) - Amérique tropicale - Synonyme : Sphaerocionum valvatum (Hook, et Grev.) Copel.
+Hymenophyllum verecundum C.V.Morton (1947) - Pérou, Bolivie
+Hymenophyllum vestitum (C.Presl) Bosch (1863) - Brésil - Synonyme : Sphaerocionium vestitum C.Presl
+Hymenophyllum viguieri Tardieu (1941) - Madagascar
+Hymenophyllum wercklei Christ (1904) - Amérique tropicale - Synonyme : Sphaerocionium wercklei (Christ) Copel.
+Hymenophyllum × tucuchense (Jermy &amp; T.G.Walker) C.D.Adams &amp; Y.S.Baksh-Comeau (2000) - Synonyme : Sphaerocionium × tucuchense Jermy &amp; T.G. Walker
+</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Hymenophyllum</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre Mecodium C.Presl ex Copel</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de base de chromosomes des espèces de ce sous-genre est de 28.
+			Hymenophyllum abietinum Hook. &amp; Grev.
+			Hymenophyllum axillare Sw.
+			Hymenophyllum hayatai Masam.
+			Hymenophyllum polyanthos (Sw.) Sw.
+			Hymenophyllum rarum R.Br.
+Hymenophyllum abietinum Hook. &amp; Grev. (1831) - Bolivie, Pérou - Synonyme : Sphaerocionium abietinum (Hook. &amp; Grev.) C.Presl
+Hymenophyllum abruptum Hook. (1844) - Amérique centrale et du Sud, Caraïbe - Synonymes : Hymenophyllum darwinii Hook.f., Leptocionium abruptum (Hook.) C.Prel, Mecodium abruptum (Hook.) Copel.
+Hymenophyllum acrosorum Bosch (1856)
+Hymenophyllum alfredii Rosenst. (1925) - Costa Rica
+Hymenophyllum andinum Bosch (1859) - Équateur - Synonyme : Hymenophyllum polyanthos var. andinum (Bosch) Krug
+Hymenophyllum apicale Bosch (1859)
+Hymenophyllum apiculatum Mett. ex Kuhn (1868) - Venezuela
+Hymenophyllum atrosanguineum Bosch (1859) - Colombie
+Hymenophyllum axillare Sw. (1800) - Amérique tropicale - Synonymes : Trichomanes axillare (Sw.) Poir., Mecodium axillare (Sw.) Copel., Sphaerocionium axillare (Sw.) C.Presl
+Hymenophyllum balfourii Baker (1891) - La Réunion
+Hymenophyllum botryoides Bosch (1863) - Mexique
+Hymenophyllum breve Rosenst. (1924) - Brésil
+Hymenophyllum brevifrons Kunze (1847) - Amérique centrale et du Sud (dont Guyane), Caraïbe - Synonyme : Hymenophyllum abruptum var. brevifrons (Kunze) Franch.
+Hymenophyllum brevistipes Lindm. (1849) - Amérique centrale et Caraïbe
+Hymenophyllum capense Schrad. (1818) - Afrique du Sud - Synonyme possible : Hymenophyllum fumarioides Bory ex Willd.
+Hymenophyllum capillaceum Roxb. (1816) - Île Sainte Hélène
+Hymenophyllum carnosum Christ (1904) - Costa Rica
+Hymenophyllum coloratum A.Br. ex Bosch (1856)
+Hymenophyllum compactum Bonap. (1925) - Madagascar
+Hymenophyllum contextum Rosenst. (1925) - Costa Rica
+Hymenophyllum contiguum (D.A.Sm.) Tindale (1963) - Queensland (Australie) - Synonyme : Mecodium contiguum D.A.Smith
+Hymenophyllum contortum Bosch (1863) - Costa Rica, Colombie, Bolivie
+Hymenophyllum convolutum Bosch (1859)
+Hymenophyllum copelandii C.V.Morton (1968) - Synonyme : Mecodium archboldii Copel.
+Hymenophyllum coreanum Nakai (1926) - Corée - Synonyme : Mecodium coreanum (Nakai) Seriz.
+Hymenophyllum corrugatum Christ (1903) - Chine - Synonyme : Mecodium corrugatum (Christ) Copel.
+Hymenophyllum corrugatum var. elongatum Christ (1906) - Chine - Synonyme : Mecodium corrugatum var. elongatum (Christ) H.S.Kung
+Hymenophyllum costaricanum Bosch (1863) - Costa Rica
+Hymenophyllum costaricanum var. emarginatum Rosenst. (1925) - Costa Rica
+Hymenophyllum cuneatum Kunze (1837) - Chili, archipel Juan Fernández - Synonyme : Hymenophyllum cumingii C.Presl
+Hymenophyllum cuneatum f. imbricata C.Chr. &amp; Skottsb. (1920) - Chili
+Hymenophyllum cuneatum var. rariforme C.Chr. &amp; Skottsb. (1920) - Chili, archipel Juan Fernández
+Hymenophyllum cuneatum var. terminale (Phil.) Looser (1936) - Synonyme : Hymenophyllum terminale Phil.
+Hymenophyllum cuneatum var. typicum C.Chr. &amp; Skottsb. (1920)
+Hymenophyllum decurrens (Jacq.) Sw. (1800) - Amérique tropicale - Synonymes : Adiantum decurrens Jacq., Trichomanes decurrens (Jacq.) Poir., Hymenophyllum schomburgkii C.Presl
+Hymenophyllum decurrens var. sieberianum C.Presl (1843) - Synonyme possible : Hymenophyllum kohautianum C.Presl
+Hymenophyllum dendritis Rosenst. (1909) - Bolivie
+Hymenophyllum discosum Christ (1898) - Luçon
+Hymenophyllum diversilabium (Copel.) C.V.Morton (1968) - Synonyme : Mecodium diversilabium Copel.
+Hymenophyllum epiphyticum J.W.Moore (1933) - Raiatea (archipel de la Société)
+Hymenophyllum farallonense Hieron. (1904) - Colombie, Équateur
+Hymenophyllum fecundum Bosch (1863) - Costa Rica
+Hymenophyllum fendlerianum J.W.Sturm (1859) - Venezuela - Synonyme : Hymenophyllum undulatum var. fendlerianum (J.W.Sturm) Stolze
+Hymenophyllum ferax Bosch (1859) - Équateur, Venezuela
+Hymenophyllum flaccidum Bosch (1859)
+Hymenophyllum floribundum Kunth (1815)  
+Hymenophyllum fraternum C.Presl (1843) - Jamaïque
+Hymenophyllum fujisanense Nakai (1926) - Japon
+Hymenophyllum fumarioides Bory ex Willd. (1810) - Afrique australe, Madagascar - Synonyme : Mecodium fumarioides Copel.
+Hymenophyllum funckii Bosch (1863) - Venezuela, Jamaïque
+Hymenophyllum gollmeri Bosch (1863) - Colombie, Équateur
+Hymenophyllum gracile Bory (1810) - Amérique tropicale (Brésil, Caraïbe) - Synonyme : Sphaerocionium gracile (Bory) C.Presl
+Hymenophyllum gracilius Copel. (1932) - Tahiti
+Hymenophyllum gunnii Bosch ex Baker (1874)
+Hymenophyllum hayatai Masam. (1936) - Chine (Taïwan) - Nouveau nom pour l'homonyme Hymenophyllum constrictum Hayata de Hymenophyllum constrictum Christ.
+Hymenophyllum helicoideum Sodiro (1892) - Équateur
+Hymenophyllum henkelii Sim (1923) - Zimbabwe
+Hymenophyllum herzogii Rosenst. (1913) - Bolivie
+Hymenophyllum himalaianum Bosch (1863)
+Hymenophyllum inaequale (Poir.) Desv. (1827) - Afrique du Sud, Madagascar, îles Mascareignes - Synonyme : Trichomanes inaequale Poir.
+Hymenophyllum infortunatum Bory (1828)
+Hymenophyllum integrum Bosch (1856)
+Hymenophyllum involucratum Copel. (1931) - Rarotonga (îles Cook)
+Hymenophyllum jalapense Schltdl. &amp; Cham. (1830) - Mexique
+Hymenophyllum kohautianum C.Presl (1843) - Caraïbe, Guyane
+Hymenophyllum kuhnii C.Chr. (1905) - Madagascar, Afrique australe - Remplace l'homonyme Hymenophyllum meyeri Kuhn de Hymenophyllum meyeri C.Presl - Synonyme : Hymenophyllum polyanthos var. kuhnii (C.Chr.) Schelpe
+Hymenophyllum laciniosum Christ (1904) - Colombie, Costa Rica
+Hymenophyllum lehmannii Hieron. (1899) - Colombie
+Hymenophyllum lherminieri Mett. ex Kuhn (1868) - Guadeloupe
+Hymenophyllum limminghii Bosch (1863)
+Hymenophyllum longissimum (Ching &amp; Chiu) K.Iwats. (1985) -  - Synonyme : Mecodium longissimum Ching &amp; Chiu
+Hymenophyllum macrothecum Fée (1866) - Guadeloupe
+Hymenophyllum martinicense Bosch (1859)
+Hymenophyllum mathewsii Bosch (1863)
+Hymenophyllum mazei E.Fourn. ex Christ (1897) - Guadeloupe
+Hymenophyllum mexiae (Copel.) C.V.Morton (1968) - Synonyme : Mecodium mexiae Copel.
+Hymenophyllum microphyllum Mett. (1864) - Colombie
+Hymenophyllum microphyllum var. major Hieron. (1906) - Colombie
+Hymenophyllum microsorum Bosch (1863) - Chine, Sikkim (Inde)
+Hymenophyllum millefolium Schltdl. &amp; Cham. (1830) - Mexique
+Hymenophyllum mnioides Baker (1867) - Nouvelle Calédonie
+Hymenophyllum multiflorum Rosenst. (1913) - Bolivie
+Hymenophyllum myriocarpum Hook. (1844) - Mexique, Pérou - Synonyme : Mecodium myriocarpum (Hook.) Copel.
+Hymenophyllum myriocarpum var. endiviifolium (Desv.) Stolze (1989) - Amérique du Sud - Synonymes : Hymenophyllum endiviifolium Desv., Mecodium endiviifolium (Desv.) Pic. Serm.
+Hymenophyllum natalense Bosch (1859) - Afrique du Sud
+Hymenophyllum nigrescens Liebm. (1849) - Mexique, Pérou, Équateur - Synonyme : Hymenophyllum myriocarpum var. nigrescens (Liebm.) Stolze
+Hymenophyllum nigrescens var. gracilis Rosenst. (1913) - Bolivie
+Hymenophyllum nitiduloides Copel. (1937) - Philippines
+Hymenophyllum novoguineense (Rosenst.) K.Iwats. (2006) - Synonyme : Hymenophyllum blumeanum var. novogineense Rosenst.
+Hymenophyllum ooides F.Muell. &amp; Baker (1890) - Nouvelle-Guinée
+Hymenophyllum osmundoides Bosch (1863)
+Hymenophyllum paniculiflorum C.Presl (1843) - Malaisie, Japon - Synonyme : Mecodium paniculiflorum (C.Presl) Copel.
+Hymenophyllum parallelocarpum Hayata (1914) - Chine (Taïwan)
+Hymenophyllum parvulum C.Chr. (1905) - Chili
+Hymenophyllum paucicarpum Jenman (1890) - Caraïbe
+Hymenophyllum poeppigianum C.Presl (1843) - Pérou
+Hymenophyllum pollenianum Rosenst. (1912) - Madagascar
+Hymenophyllum polyanthos (Sw.) Sw. (1801) - Toutes zones tropicales - Synonymes : Hymenophyllum acutum Mett. (non (C.Presl) Ebihara &amp; K.Iwats.), Hymenophyllum grevilleanum C.Presl, Hymenophyllum pectinatum Nees &amp; Blume (homonyme de Hymenophyllum pectinatum Cav.), Mecodium polyanthos (Sw.) Copel., Trichomanes polyanthos Sw.
+Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug (1897) - Malaisie - Synonyme : Hymenophyllum blumeanum Spreng.
+Hymenophyllum polyanthos var. clavatum (Sw.) Duss (1903) - Caraïbe - Synonymes : Hymenophyllum clavatum (Sw.) Sw., Trichomanes clavatum Sw.
+Hymenophyllum polyanthos var. contiguum Croxall (1975) - Mauvaise orthographe de l'éphithète spécifique : Polyanthon au lieu de Polyanthos
+Hymenophyllum polyanthos var. mossambicense Schelpe (1955) - Afrique du Sud - Synonyme : Hymenophyllum mossambicense (Schelpe) R.R.Schippers
+Hymenophyllum polyanthos var. protrusum (Hook.) Farw. (1931) - Amérique tropicale - Synonymes : Hymenophyllum protrusum Hook., Mecodium protrusum (Hook.) Copel.
+Hymenophyllum polyanthos var. reductum Jenman (1898) - Caraïbe, Guyane
+Hymenophyllum polyanthos var. sanguinolentum Jenman (1898)
+Hymenophyllum polyanthos var. sturmii (Bosch) Angely (1963) - Amérique centrale - Synonyme : Hymenophyllum sturmii Bosch
+Hymenophyllum polycarpum Mett. ex Kuhn (1868) - Pérou
+Hymenophyllum punctisorum Rosenst. (1915) - Chine (Taïwan) - Synonyme possible de Hymenophyllum polyanthos Sw. selon l'index Tropicos
+Hymenophyllum pusillum Schott ex J.W.Sturm (1859) - Brésil
+Hymenophyllum rarum R.Br. (1810) - Tasmanie, Nouvelle-Zélande - Synonymes : Mecodium rarum (R.Br.) Copel., Hymenophyllum imbricatum Colenso, Hymenophyllum semibivalve Hook. &amp; Grev., Trichomanes rarum (R.Br.) Poir.
+Hymenophyllum recurvum Gaudich. (1827) - Îles Hawaï - Synonyme : Hymenophyllum semibivalve Hook. &amp; Grev., Mecodium recurvum (Gaudich.) Copel.
+Hymenophyllum remotipinna Bonap. (1925)
+Hymenophyllum reniforme Hook. (1844) - Équateur, Pérou - Synonyme : Mecodium reniforme (Hook.) Copel.
+Hymenophyllum rimbachii Sodiro (1893) - Équateur
+Hymenophyllum siliquosum Christ (1904) - Costa Rica - Synonyme : Mecodium siliquosum (Christ) Copel.
+Hymenophyllum skottsbergii C.Chr. (1910) - Terre de Feu
+Hymenophyllum sphaerocarpum Bosch (1863) - Inde
+Hymenophyllum subdeltoideum Christ (1902) - Remplace l'homonyme Hymenophyllum polyanthos Fée de Hymenophyllum polyanthos Sw.
+Hymenophyllum subdemissum Christ (1898) - Luçon
+Hymenophyllum tablaziense Christ (1909) - Costa Rica - Synonyme : Mecodium tablaziense (Christ) Copel.
+Hymenophyllum tabulare Bosch (1859)
+Hymenophyllum tenellum D.Don (1825) - Népal - Synonyme : Hymenophyllum polyanthos var. minor Bedd.
+Hymenophyllum tenerum Bosch (1863) - Équateur
+Hymenophyllum thunbergii Eckl. ex C.Presl (1843)
+Hymenophyllum trianae Hieron. (1904) - Colombie - Synonyme : Mecodium trianae (Hieron.) Copel. - Remplace l'homonyme Hymenophyllum prostratum Mett.
+Hymenophyllum trichomanoides Bosch (1863) - Amérique tropicale
+Hymenophyllum trichomanoides var. subalatum Rosenst. (1925) - Costa Rica
+Hymenophyllum undulatum (Sw.) Sw. (1801) - Amérique tropicale - Synonyme : Trichomanes undulatum Sw.
+Hymenophyllum undulatum var. regenerans C.Chr. (1926) - Bolivie
+Hymenophyllum veronicoides C.Chr. ex Bonap. (1920) - Madagascar - Synonyme : Mecodium veronicoides (C.Chr.) Copel.
+Hymenophyllum vincentinum Baker (1891) - Saint Vincent
+Hymenophyllum vincentinum var. latifolium Baker (1891) - Saint Vincent
+Hymenophyllum viridissimum Fée (1869)
+Hymenophyllum whitei Goy (1941) - Queensland - Synonyme : MeMecodium whitei (Goy) Wakef.
+Hymenophyllum wrightii Bosch (1859) - Japon - Synonyme : Mecodium wrightii (Bosch) Copel.
+Hymenophyllum zeyheri Bosch (1859)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-genre Globosa (Prantl) Ebihara &amp; K.Iwats</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de base de chromosomes des espèces de ce sous-genre est de 36.
+			hymenophyllum australe Willd.
+			Hymenophyllum badium Hook. &amp; Grev.
+			Hymenophyllum caudiculatum Mart.
+			Hymenophyllum erosum Blume
+			Hymenophyllum fimbriatum J.Sm.
+			Hymenophyllum flexuosum A.Cunn.
+Hymenophyllum angulosum Christ (1908) - Mindoro
+Hymenophyllum assamense Gand. (1913)
+Hymenophyllum aucklandicum Bosch (1859)
+Hymenophyllum australe Willd. (1810) - Australie, Nouvelle-Zélande, Polynésie, Philippines, Asie tropicale - Synonymes : Hymenophyllum serpens Wall., , Mecodium australe (Willd. ) Copel., Sphaerocionium australe (Willd.) C.Presl
+Hymenophyllum australe var. atrovirens (Colenso) Alderw. (1908) - Synonyme : Hymenophyllum atrovirens Colenso
+Hymenophyllum australe var. crispatum (Wall. ex Hook. &amp; Grev.) Bonap. (1919) - Inde, Ceylan, Philippines - Synonymes : Hymenophyllum crispatum Wall. ex Hook. &amp; Grev., Mecodium crispatum (Wall. ex Hook. et Grev.) Copel.
+Hymenophyllum australe var. tasmanicum (Bosch) Bonap. (1917) - Synonyme : Hymenophyllum tasmanicum Bosch
+Hymenophyllum badium Hook. &amp; Grev. (1828) - Himalaya - Synonymes : Hymenophyllum javanicum var. badium (Hook. &amp; Grev.) C.B.Clarke, Hymenophyllum cumingii Bosch, Mecodium badium (Hook. &amp; Grev.) Copel., Sphaerocionium badium (Hook. &amp; Grev.) C.Presl
+Hymenophyllum balansae E.Fourn. (1873) - Nouvelle-Calédonie
+Hymenophyllum bamlerianum Rosenst. (1912) - Nouvelle-Guinée
+Hymenophyllum bismarckianum Christ (1905) - Nouvelle-Guinée
+Hymenophyllum caudiculatum Mart. (1834) - Brésil - Patagonie - Synonymes : Mecodium caudiculatum (Mart.) Copel., Hymenophyllum schottii Pohl, Sphaerocionium caudiculatum (Mart.) C.Presl
+Hymenophyllum caudiculatum var. caudatum (Bosch) Hook. &amp; Baker (1866) - Synonyme : Hymenophyllum caudatum Bosch
+Hymenophyllum caudiculatum var. productum (C.Presl) C.Chr. (1916) - Synonymes : Hymenophyllum patagonicum Gand.,Hymenophyllum productum (C.Presl) J.W.Sturm, Mecodium caudiculatum f. productum (C.Presl) G.Kunkel, Sphaerocionium productum C.Presl
+Hymenophyllum copelandianum (Bosch) Alderw. (1912) - Mindanao
+Hymenophyllum crispato-alatum Hayata (1915) - Chine (Taïwan)
+Hymenophyllum crispato-alatum f. remotipinnum Hayata (1915)
+Hymenophyllum daedaleum Blume (1828)
+Hymenophyllum demissum (G.Forst.) Sw. (1800) - Polynésie, Nouvelle-Zélande - Synonyme : Trichomanes demissum G.Forst.
+Hymenophyllum eboracense Croxall (1975) - Australie (Queensland)
+Hymenophyllum edanoi (Copel.) C.V.Morton (1968) - Philippines (Mindoro) - Synonyme : Mecodium edanoi Copel.
+Hymenophyllum emarginatum Sw. (1800)
+Hymenophyllum erecto-alatum Colenso (1879)
+Hymenophyllum erosum Blume (1828) - Java
+Hymenophyllum eximium Kunze (1846) - Malaisie
+Hymenophyllum fimbriatum J.Sm. (1841) - Chine, Philippines, Vietnam - Synonymes : Hymenophyllum franternum Harr., Mecodium fimbriatum (J. Sm.) Copel.
+Hymenophyllum flexile Makino (1899) - Japon
+Hymenophyllum flexuosum A.Cunn. (1837)
+Hymenophyllum formosum Brack. (1854)
+Hymenophyllum humboldtianum E.Fourn. (1873) - Nouvelle Calédonie
+Hymenophyllum imbricatum Blume (1828) - Java
+Hymenophyllum inclinatum Bosch (1856)
+Hymenophyllum intricatum Bosch (1863) - Tasmanie
+Hymenophyllum javanicum Spreng. (1827) - Asie tropicale (Chine, Inde, Vietnam...) - Synonyme : Mecodium javanicum (Spreng.) Copel.
+Hymenophyllum junghuhnii Bosch (1856) - Java - Synonyme : Hymenophyllum dilatatum Blume (homonyme de Hymenophyllum dilatatum (G.Forst.) Sw.)
+Hymenophyllum latilobum Bonap. (1921)
+Hymenophyllum leptodictyon Müll.Berol. (1854)
+Hymenophyllum longifolium Alderw. (1914) - Célèbes
+Hymenophyllum macrocarpum (C.Presl) Bosch (1859) - Bolivie - Synonyme : Sphaerocionium macrocarpum C.Presl
+Hymenophyllum malaccense Gand. (1913) - Malacca (Malaisie)
+Hymenophyllum martii J.W.Sturm (1859)
+Hymenophyllum megalocarpum Colenso (1883)
+Hymenophyllum mentitum Gand. (1913) - Australie
+Hymenophyllum micranthum Bosch (1856)
+Hymenophyllum modestum Bosch (1863) - Philippines
+Hymenophyllum montanum Kirk (1873)
+Hymenophyllum neozelandicum Gand. (1913) - Nouvelle-Zélande
+Hymenophyllum opacum Copel. (1937) - Nouvelle-Guinée
+Hymenophyllum pantotactum Alderw. (1912) - Java
+Hymenophyllum patagonicum Gand. (1913) - Patagonie
+Hymenophyllum physocarpum Christ (1905)
+Hymenophyllum pleiocarpum Alderw. (1922) - Sumatra
+Hymenophyllum polychilum Colenso (1892) - Nouvelle-Zélande
+Hymenophyllum productoides J.W.Moore (1933) - Raiatea (archipel de la Société)
+Hymenophyllum productum Kunze (1848) - Asie tropicale (Chine, Thaïlande), Philippines - Synonyme : Mecodium productum (Kunze) Copel.
+Hymenophyllum raapii Gand. (1913) - Java
+Hymenophyllum reinwardtii Bosch (1859) - Java, Sumatra - Synonyme : Mecodium reinwardtii (Bosch) Copel.
+Hymenophyllum retusilobum Hayata (1921) - Chine (Taïwan) - Synonyme : Mecodium retusilobum (Hayata) Tagawa
+Hymenophyllum riukiuense Christ (1900) - Liu Kiu - Synonyme : Mecodium riukiuense (Christ) Copel.
+Hymenophyllum salakense Racib. (1898) - Java - Synonyme : Mecodium salakense (Racib.) Copel.
+Hymenophyllum samoense Baker (1876) - Samoa - Synonyme : Mecodium samoense (Baker) Copel.
+Hymenophyllum shirleyanum Domin (1913) - Queensland
+Hymenophyllum stenocladum (Ching &amp; P.C.Chiu (1985) - Synonyme : Mecodium stenocladum Ching &amp; P.C.Chiu
+Hymenophyllum streptophyllum E.Fourn. (1873) - Nouvelle Calédonie
+Hymenophyllum taiwanense (Tagawa) C.V.Morton (1968) - Synonyme : Mecodium taiwanense Tagawa
+Hymenophyllum thuidium Harr. (1877) - Philippines, Nouvelle-Guinée, Bornéo - Synonyme : Mecodium thuidium (Harr.) Copel.
+Hymenophyllum todjambuense Kjellb. (1933) - Célèbes
+Hymenophyllum treubii Racib. (1898) - Indonésie, Nouvelle-Guinée
+Hymenophyllum treubii var novoguineense Rosenst. (1913) - Papouasie-Nouvelle-Guinée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-genre Pleuromanes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les espèces de ce sous-genre ont un long rhizome rampant.
+Le limbe des frondes est divisé plus d'une fois, de manière non dichotome, il est glabre ou légèrement couvert d'une pilosité simple blanchâtre, sans aucun poil en étoile.
+Le nombre de base de chromosomes est de 36.
+			Hymenophyllum nitens R.Br.
+			Hymenophyllum pallidum (Blume) Ebihara &amp; K.Iwats.
+Hymenophyllum acutum (C.Presl) Ebihara &amp; K.Iwats. (2006) - Philippines - Synonyme : Trichomanes acutum C.Presl
+Hymenophyllum flabellatum Labill. (1806) - Australie, Nouvelle-Zélande
+Hymenophyllum foxworthyi Copel. (1917) - Indonésie
+Hymenophyllum hookeri Bory (1833)
+Hymenophyllum leratii Rosenst. (1910) - Nouvelle Calédonie
+Hymenophyllum nitens R.Br. (1810) - Nouvelle-Zélande - Synonyme : Trichomanes nitens (R.Br.) Poir.
+Hymenophyllum pallidum (Blume) Ebihara &amp; K.Iwats. (2006) - Îles du Pacifique (Ceylan, Malaisie, Philippines...) dont la Nouvelle-Calédonie - Synonymes : Craspedoneuron album (Blume) Bosch, Craspedoneuron pallidum (Blume) Bosch, Crepidomanes album K.Iwats., Crepidomanes pallidum (Blume) K.Iwats., Pleuromanes album (Blume) Parris, Pleuromanes pallidum (Blume) C.Presl, Trichomanes album Blume, Trichomanes fusco-glaucescens Hook., Trichomanes glaucescens Bosch, Trichomanes glaucofuscum Hook., Trichomanes pallidum Blume
+Hymenophyllum rufescens Kirk (1879) - Nouvelle-Zélande - Synonyme : Mecodium rufescens (Kirk) Copel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-genre Myrmecostylum</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le nombre de base de chromosomes des espèces de ce sous-genre est 36.
+			Hymenophyllum tortuosum Hook. &amp; Grev.
+Hymenophyllum bibraianum J.W.Sturm (1853)
+Hymenophyllum cristulatum Rosenst. (1908) - Nouvelle-Zélande
+Hymenophyllum krauseanum Phil. (1860) - Argentine et Chili - Synonymes : Hymenophyllum dichotomum var. krauseanum (Phil.) C.Chr., Hymenophyllum magellanicum var. krauseanum (Phil.) C.Chr., Hymenophyllum plicatum var. krauseanum (Phil.) Looser
+Hymenophyllum lophocarpum Colenso (1885) - Nouvelle-Zélande
+Hymenophyllum magellanicum (Desv.) Kunze (1847) - Amérique du Sud - Synonymes : Didymoglossum magellanicum Desv., Meringium magellanicum (Desv.) Copel. 
+Hymenophyllum magellanicum var. attenuatum (Hook.) Luetzelb. (1923) - Chili - Synonyme : Hymenophyllum attenuatum Hook.
+Hymenophyllum nigricans Colla (1836)
+Hymenophyllum paniense Ebihara &amp; K.Iwats. (2003) - Nouvelle Calédonie
+Hymenophyllum plicatum Kaulf. (1824) - Amérique australe tempérée - Synonyme : Ptychophyllum plicatulum (Kaulf.) C.Presl
+Hymenophyllum plicatum var. quadrifidum (Phil.) Looser (1937) - Chili
+Hymenophyllum sanguinolentum (G.Forst.) Sw. (1800) - Nouvelle-Zélande - Synonyme : Trichomanes sanguinolentum G.Forst.
+Hymenophyllum scabrum A.Rich. (1832) - Nouvelle-Zélande - Synonymes : Mecodium scabrum (A.Rich.) Copel., Sphaerocionium gladuliferum C.Presl
+Hymenophyllum seselifolium C.Presl (1843) - Chili
+Hymenophyllum tortuosum Hook. &amp; Grev. (1829) - Amérique du Sud - Synonymes : Hymenophyllum skottsbergii Gand., Leptocionium tortuosum (Hook. &amp; Grev.) Bosch, Meringium tortuosum (Hook. et Grev.) Copel., Myrmecostylum tortuosum (Hook. &amp; Grev.) C.Presl.
+Hymenophyllum tortuosum var. beckeri (H.Krause ex Phil.) Espinosa (1936) - Chili - Synonyme : Trichomanes beckeri H.Krause ex Phil.
+Hymenophyllum tortuosum var. bustillosii Espinosa (1936) - Chili
+Hymenophyllum tortuosum var. glomeratum Diem &amp; J.S.Licht. (1959) - Argentine et Chili
+Hymenophyllum villosum Colenso (1844) - Nouvelle-Zélande - Synonyme : Mecodium villosum (Colenso) Copel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-genre Hymenoglossum</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ce sous-genre, réduit à trois espèces, est caractérisé par un rhizome filiforme, presque sans poils, des fondes entières ou divisées une fois, des sores à deux lèvres marginaux au limbe.
+Le nombre de base de chromosomes semble être de 36.
+			Hymenophyllum asplenoides (Sw.) Sw.
+			Hymenophyllum cruentum Cav.
+Hymenophyllum asplenioides (Sw.) Sw. (1801) - Amérique tropicale - Synonymes : Mecodium asplenioides (Sw.) Copel., Trichomanes asplenioides Sw.
+Hymenophyllum asplenioides var. palmatum Klotzsch ex Fée (1869) - Brésil
+Hymenophyllum cruentum Cav. (1802) - Chili, archipel Juan Fernández - Synonyme : Hymenoglossum cruentum (Cav.) C.Presl
+Hymenophyllum heimii Tardieu (1938) - Madagascar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-genre Fuciformia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ce sous-genre présente un rhizome court, densément couvert de poils, un limbe très découpé - trois à quatre fois - et des sores avec une indusie à deux lèvres.
+Le nombre de base de chromosomes des deux seules espèces de ce sous-genre est de 36.
+			Hymenophyllum fuciforme Sw.
+			Hymenophyllum pulcherrimum Colenso
+Hymenophyllum fuciforme Sw. (1806) - Chili, archipel Juan Fernández - Synonymes : Hymenophyllum fucoides Cav. (homonyme de Hymenophyllum fucoides (Sw.) Sw.), Hymenophyllum semiteres Colla, Leptiocionium fuciforme  (Sw.) C.Presl 
+Hymenophyllum pulcherrimum Colenso (1844) - Nouvelle-Zélande - Synonyme : Mecodium pulcherrimum (Colenso) Copel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous-genre Diploöphyllum</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L'unique espèce du sous-genre compte 36 paires de chromosomes.
+			Hymenophyllum dilatatum (G.Forst.) Sw.
+Hymenophyllum dilatatum (G.Forst.) Sw. (1801) - Nouvelle-Zélande - Synonymes : Hymenophyllum sororium (C.Presl) Bosch, Mecodium dilatatum (G.Forst.) Copel., Trichomanes dilatatum G.Forst., Leptocionium sororium C.Presl
+Hymenophyllum dilatatum var. amplum Christ (1899)
+Hymenophyllum dilatatum var. formosum Brack.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sous-genre Cardiomanes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hymenophyllum nephrophyllum Ebihara &amp; K.Iwats.
+Ce sous-genre ne comprend qu'une seule espèce au long rhizome traçant, partiellement couvert de poils foncés. L'indusie est tubulaire (ce qui explique son classement antérieur dans le genre Trichomanes).
+Le nombre de base des chromosomes de cette espèce est de 36.
+Hymenophyllum nephrophyllum Ebihara &amp; K.Iwats. (2006) - Nouvelle-Zélande - Synonymes : Trichomanes reniforme G.Forst., Cardiomanes reniforme (G.Forst.) C.Presl</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces par sous-genre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sous-genre non déterminé</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hymenophyllum apteryx M.Kessler &amp; Sundue (2005) - Bolivie
+Hymenophyllum assurgens M.Kessler &amp; A.R.Sm. (2005) - Bolivie
+Hymenophyllum densum Wall. (1828)
+Hymenophyllum grandis Lellinger (1985) - Costa Rica
+Hymenophyllum laeve Ham. (1829) - Maurice - Nom illégal.
+Hymenophyllum latisorum M.Kessler &amp; A.R.Sm. (2005) - Bolivie
+Hymenophyllum macrocarpon W.Schaffn. ex E.Fourn. (1872) 
+Hymenophyllum malcolm-smithii Proctor (1962) - Saint Kitts
+Hymenophyllum parvum C.Chr. (1932) - Madagascar
+Hymenophyllum tegularis (Desv.) Proctor (1990) - Synonyme : Davallia tegularis Desv.
+Hymenophyllum trifoliatum (L.) Proctor &amp; A.Lourteig (1990) - Synonyme : Adiantum trifoliatum L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Espèces synonymes ou classées par ailleurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hymenophyllum abruptum var. brevifrons (Kunze) Franch. (1889) - Amérique centrale et du Sud (dont Guyane), Caraïbe - Voir Hymenophyllum brevifrons Kunze
@@ -1084,7 +1852,7 @@
 Hymenophyllum baldwinii D.C.Eaton (1879) - Hawaï - Voir Callistopteris baldwinii (D.C.Eaton) Copel.
 Hymenophyllum bifarium Mett. ex Sadeb. (1899) - Voir Hymenophyllum mnioides Baker
 Hymenophyllum bivalve J.Sm. (1841) - Voir Hymenophyllum serrulatum (C.Presl) C.Chr.
-Hymenophyllum blumeanum Spreng. (1827) - Malaisie - Voir Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug - Espèce probablement aussi décrite par l'homonyme Hymenophyllum polyanthos Matsum. de Hymenophyllum polyanthos (Sw.) Sw[21].
+Hymenophyllum blumeanum Spreng. (1827) - Malaisie - Voir Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug - Espèce probablement aussi décrite par l'homonyme Hymenophyllum polyanthos Matsum. de Hymenophyllum polyanthos (Sw.) Sw.
 Hymenophyllum blumeanum var. novoguineense Rosenst. (1908) - Nouvelle-Guinée - Voir Hymenophyllum novoguineense (Rosenst.) K.Iwats.
 Hymenophyllum breutelii (C.Presl) Bosch (1863) - Voir Hymenophyllum polyanthos(Sw.) Sw. - synonyme : Sphaerocionium breutelii C.Presl
 Hymenophyllum bridgesii Hook. (1844) : Voir Hymenophyllum dentatum Cav. - synonymes : Leptocionium dentatum (Cav.) Bosch, Sphaerocionium bridgesii (Hook.) Klotzsch
@@ -1120,7 +1888,7 @@
 Hymenophyllum flaccidum (Bosch) Baker (1868) - Inde orientale - Voir Hymenophyllum khasianum Baker - Homonyme de Hymenophyllum flaccidum Bosch renommé Hymenophyllum khasianum (Bosch) Baker - synonymes : Hymenophyllum denticulatum var. flaccidum (Bosch) C.B.Clarke, Leptocionium flaccidum Bosch, Meringium flaccidum (Bosch) B.Nair
 Hymenophyllum franklinianum Colenso (1844) - Nouvelle-Zélande - Voir Hymenophyllum aeruginosum var. franklinianum (Colenso) Hook.
 Hymenophyllum fraternum Harr. (1877) - Voir Hymenophyllum fimbriatum J.Sm. - Homonyme de Hymenophyllum fraternum C.Presl renommé Hymenophyllum steerei par Carl Frederik Albert Christensen
-Hymenophyllum fucoides Cav. (1802) - Voir Hymenophyllum fuciforme Sw. - Homonyme de Hymenophyllum fucoides Sw.[22].
+Hymenophyllum fucoides Cav. (1802) - Voir Hymenophyllum fuciforme Sw. - Homonyme de Hymenophyllum fucoides Sw..
 Hymenophyllum fucoides var. cristatum (Hook. &amp; Grev.) Hieron. (1906) - Équateur, Pérou - voir Hymenophyllum cristatum Hook. &amp; Grev. - synonyme : Buesia cristata (Hook. &amp; Grev.) Copel.
 Hymenophyllum gratum Fée (1866) - Jamaïque, Guadeloupe - Voir Hymenophyllum hirsutum var. gratum (Fée) Proctor
 Hymenophyllum grevilleanum C.Presl (1843) - Voir Hymenophyllum polyanthos Sw. (sur la base de Christensen) - Nouveau nom donné par Presl à l'espèce Hymenophyllum polyanthos décrite par Hooker et Greville dans Icones filicum, mais il ne semble pas s'agir de l'homonyme Hymenophyllum polyanthos Hook. in Night. (1835) de Hymenophyllum polyanthos Sw. (c'est-à-dire Callistopteris polyantha (Hook.) Copel.)
@@ -1128,7 +1896,7 @@
 Hymenophyllum humile Nees &amp; Blume (1823) - Voir Hymenophyllum denticulatum Sw.
 Hymenophyllum imbricatum Colenso (1844) - Voir Hymenophyllum rarum R.Br.
 Hymenophyllum imbricatum Kunze (1859) - Voir Callistopteris polyantha (Hook.) Copel.
-Hymenophyllum intermedium Mett. (1899) - Voir Hymenophyllum hirsutum (L.) Sw. [23]
+Hymenophyllum intermedium Mett. (1899) - Voir Hymenophyllum hirsutum (L.) Sw. 
 Hymenophyllum javanicum var. badium (Hook. &amp; Grev.) C.B.Clarke (1880) - Voir : Hymenophyllum badium Hook. &amp; Grev. - synonymes : Hymenophyllum cumingii Bosch, Mecodium badium (Hook. &amp; Grev.) Copel., Sphaerocionium badium (Hook. &amp; Grev.) C.Presl
 Hymenophyllum fusugasugense var. aberrans C.V.Morton (1947) - Colombie - voir Hymenophyllum tomentosum Kunze
 Hymenophyllum khasianum Baker (1874) - Inde, Chine, Asie du Sud-Est - Voir Hymenophyllum denticulatum var. flaccidum (Bosch) C.B.Clarke. - Nouveau nom pour l'homonyme Hymenophyllum flaccidum (Bosch) Baker de Hymenophyllum flaccidum Bosch - synonymes : Leptocionium flaccidum Bosch, Meringium flaccidum (Bosch) B.Nair
@@ -1155,11 +1923,11 @@
 Hymenophyllum polyanthos Fée (1866) - voir Hymenophyllum subdeltoideum Christ
 Hymenophyllum polyanthos Hook. (1835) - Îles du Pacifique, îles Norfolk et Lord Howe - Voir Callistopteris polyantha (Hook.) Copel. - synonymes : Trichomanes polyanthos (Hook.) Hook., Trichomanes societense J.W.Moore
 Hymenophyllum polyanthos Matsum. (1904) - Voir Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug
-Hymenophyllum polyanthos var. andinum Krug (1897) - Équateur - Voir Hymenophyllum andinum Bosch[24]
+Hymenophyllum polyanthos var. andinum Krug (1897) - Équateur - Voir Hymenophyllum andinum Bosch
 Hymenophyllum polyanthos var. kuhnii (C.Chr.) Schelpe (1966) - Madagascar, Afrique australe - Voir Hymenophyllum kuhnii C.Chr.
 Hymenophyllum polyanthos var. mildbraedii (Brause ex Brause &amp; Hieron.) Schelpe (1976) - Voir Hymenophyllum mildbraedii (Brause ex Brause &amp; Hieron.) Alston in Exell - synonyme : Trichomanes mildbraedii Brause ex Brause &amp; Hieron.
 Hymenophyllum polyanthos var. minor Bedd. (1863) - Népal - Voir Hymenophyllum tenellum D.Don
-Hymenophyllum polyanthum Hook. (1835) - Îles du Pacifique, îles Norfolk et Lord howe - Voir Callistopteris polyantha (Hook.) Copel. - synonymes : Hymenophyllum polyanthos Hook., Trichomanes societense J.W.Moore[25]
+Hymenophyllum polyanthum Hook. (1835) - Îles du Pacifique, îles Norfolk et Lord howe - Voir Callistopteris polyantha (Hook.) Copel. - synonymes : Hymenophyllum polyanthos Hook., Trichomanes societense J.W.Moore
 Hymenophyllum procerum Bosch (1859) - Voir Hymenophyllum trichophyllum Kunth
 Hymenophyllum productum (C.Presl) J.W.Sturm (1858) - Voir Hymenophyllum caudatum var. productum (C.Presl) Lellinger - Homonyme de Hymenophyllum productum Kunze - synonyme : Sphaerocionium productum C.Presl
 Hymenophyllum productum (C.Presl) C.Chr. (1905) - Voir Hymenophyllum caudatum var. productum (C.Presl) Lellinger
@@ -1173,7 +1941,7 @@
 Hymenophyllum refrondescens Sodiro (1883) - Voir Hymenophyllum sericeum var. refrondescens (Sodiro) Sodiro
 Hymenophyllum rupestre Raddi (1825) - Voir Vandenboschia rupestris (Raddi) Ebihara &amp; K.Iwats. - synonymes : Trichomanes rupestre (Raddi) Bosch, Tricomanes venustum Desv.
 Hymenophyllum schomburgkii C.Presl (1843) - Voir Hymenophyllum decurrens (Jacq.) Sw.
-Hymenophyllum schottii Pohl - Voir Hymenophyllum caudiculatum Mart.[26]
+Hymenophyllum schottii Pohl - Voir Hymenophyllum caudiculatum Mart.
 Hymenophyllum semibivalve Hook. &amp; Grev. (1829) - Nouvelle-Zélande - voir Hymenophyllum rarum R.Br.
 Hymenophyllum semiteres Colla (1836) - Chili - Voir Hymenophyllum fuciforme Sw.
 Hymenophyllum serpens Wall. (1828) - Voir Hymenophyllum australe Willd.
@@ -1203,31 +1971,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Hymenophyllum</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hymenophyllum</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
